--- a/source/excel/Exercise.xlsx
+++ b/source/excel/Exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C6EBD-1484-F546-B6F9-19ECBB0200CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C421C0-7885-A74A-BC8D-1718B0563201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusion" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>锻炼打卡记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,23 +179,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>久坐族臀腹肌活</t>
+  </si>
+  <si>
+    <t>核心功能入门</t>
+  </si>
+  <si>
     <t>https://www.gotokeep.com/plans/56cc121bb3c8ffb12986f5e0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.gotokeep.com/plans/565bdd6f9c8ade2885c9b976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://show.gotokeep.com/plans/552b4251bdb3c8a420b4f7a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gotokeep.com/plans/570cc63e251678ecaca61891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:3;6:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00 ~ 22:00</t>
+  </si>
+  <si>
+    <t>5:1;6:1;7:1;8:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="3">
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,13 +240,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF555555"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -290,6 +313,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -340,261 +379,90 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <strike val="0"/>
@@ -677,7 +545,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -697,7 +565,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -803,11 +671,186 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -874,6 +917,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1004,36 +1065,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'records'!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+            <c:numRef>
+              <c:f>'records'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>日期</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/2/23</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/2/24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'records'!$E$3:$E$5</c:f>
+              <c:f>'records'!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,14 +1125,14 @@
         <c:axId val="2111201519"/>
         <c:axId val="8808256"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2111201519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1104,10 +1172,9 @@
         <c:crossAx val="8808256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="8808256"/>
         <c:scaling>
@@ -1129,7 +1196,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1318,138 +1385,136 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'reward'!$A$3:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
+            <c:numRef>
+              <c:f>'reward'!$A$4:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>日期</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020/2/23</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020/2/24</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020/2/25</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020/2/26</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020/2/27</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020/2/28</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020/2/29</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020/3/1</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020/3/2</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020/3/3</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020/3/4</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020/3/5</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020/3/6</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020/3/7</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020/3/8</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020/3/9</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020/3/10</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020/3/11</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020/3/12</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020/3/13</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020/3/14</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020/3/15</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020/3/16</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020/3/17</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020/3/18</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020/3/19</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020/3/20</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020/3/21</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020/3/22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020/3/23</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'reward'!$B$3:$B$33</c:f>
+              <c:f>'reward'!$B$4:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.6</c:v>
@@ -1458,16 +1523,16 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -1476,7 +1541,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.1000000000000001</c:v>
@@ -1485,7 +1550,7 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.4</c:v>
@@ -1494,7 +1559,7 @@
                   <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.5</c:v>
@@ -1503,18 +1568,15 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1553,6 +1615,105 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'reward'!$A$4:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'reward'!$C$3:$C$33</c:f>
@@ -1801,7 +1962,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4279,26 +4440,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A3:E5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="20">
-  <autoFilter ref="A3:E5" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A3:F7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A3:F7" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="时间" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="场地" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="内容" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{71B8A447-AABD-8F43-A460-E8807C484A05}" name="得分" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="内容" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{71B8A447-AABD-8F43-A460-E8807C484A05}" name="得分" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{12445E2F-D463-E242-BC0F-D90653CE3BE2}" name="备注" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{662680E1-2A67-9945-9DE7-8B444FA2D32B}" name="action_library" displayName="action_library" ref="A3:C9" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A3:C9" xr:uid="{74958ECD-60EA-C249-943D-7D0F3D8DA1D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{662680E1-2A67-9945-9DE7-8B444FA2D32B}" name="action_library" displayName="action_library" ref="A3:C23" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A3:C23" xr:uid="{74958ECD-60EA-C249-943D-7D0F3D8DA1D7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F893BCBF-61E3-884B-B7A9-1E6D231FF3F9}" name="编号" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4D1FD55F-E1FD-E14C-BC76-565DAB3BF40B}" name="标题" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{56F92241-9C54-8C4D-82EF-43A6E5A867AD}" name="地址" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F893BCBF-61E3-884B-B7A9-1E6D231FF3F9}" name="编号" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4D1FD55F-E1FD-E14C-BC76-565DAB3BF40B}" name="标题" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{56F92241-9C54-8C4D-82EF-43A6E5A867AD}" name="地址" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4308,13 +4470,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CB1901B2-FA56-854E-8FDF-C7C538BCDA6C}" name="reward" displayName="reward" ref="A3:G33" totalsRowShown="0">
   <autoFilter ref="A3:G33" xr:uid="{E40B2E59-F036-7F40-BDBC-AC7B2AD1C216}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{914A761B-D0EF-BA4F-926D-F835C4C2E4B9}" name="日期" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{81128A6A-79CE-254B-84E9-55F7452B854C}" name="预估金额" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{484B3DE0-C8A6-AE4F-9452-66A6224EBB23}" name="实际金额" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3CD31E88-2943-1948-8BB6-17AEC78C87CA}" name="预估连续天数" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C02737F2-3572-9E40-8369-D9D81830E079}" name="实际连续天数" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1D306113-184C-054B-A0C1-C5F3999ECC17}" name="预估增值" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{C8E27B63-4BAF-3B4C-8B46-253F7B3290EE}" name="实际增值" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{914A761B-D0EF-BA4F-926D-F835C4C2E4B9}" name="日期" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{81128A6A-79CE-254B-84E9-55F7452B854C}" name="预估金额" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{484B3DE0-C8A6-AE4F-9452-66A6224EBB23}" name="实际金额" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3CD31E88-2943-1948-8BB6-17AEC78C87CA}" name="预估连续天数" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{C02737F2-3572-9E40-8369-D9D81830E079}" name="实际连续天数" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1D306113-184C-054B-A0C1-C5F3999ECC17}" name="预估增值" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{C8E27B63-4BAF-3B4C-8B46-253F7B3290EE}" name="实际增值" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4324,13 +4486,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1C2D33D7-9BDE-004B-9022-15719D377283}" name="punish" displayName="punish" ref="A3:G19" totalsRowShown="0">
   <autoFilter ref="A3:G19" xr:uid="{4960D3DC-3056-4444-BC58-1E1599BCDFC8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7989DF74-EEDA-1F46-98D0-282D5963F524}" name="日期" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{4C962107-8E72-804B-B26D-ABFAFC4CC021}" name="预估金额" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0F4D2650-21EC-B549-B9C3-A747B9533D3B}" name="实际金额" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{9C8F9EBC-FD7E-4A42-85A3-67F451687709}" name="预估连续天数" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3B98898C-934B-1643-AA48-1C91544C245A}" name="实际连续天数" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{1DBACB1B-C2E4-544C-9DF2-69803576AF1E}" name="预估增值" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{EF1BF57D-DEBA-2642-B901-8E442D1D87D7}" name="实际增值" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{7989DF74-EEDA-1F46-98D0-282D5963F524}" name="日期" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4C962107-8E72-804B-B26D-ABFAFC4CC021}" name="预估金额" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0F4D2650-21EC-B549-B9C3-A747B9533D3B}" name="实际金额" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9C8F9EBC-FD7E-4A42-85A3-67F451687709}" name="预估连续天数" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3B98898C-934B-1643-AA48-1C91544C245A}" name="实际连续天数" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1DBACB1B-C2E4-544C-9DF2-69803576AF1E}" name="预估增值" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EF1BF57D-DEBA-2642-B901-8E442D1D87D7}" name="实际增值" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4635,7 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48476D19-4FA8-1343-B88F-2FA78394EF7D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
@@ -4649,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4662,6 +4824,7 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="87.33203125" bestFit="1" customWidth="1"/>
@@ -4673,491 +4836,526 @@
     <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="23">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" ht="21">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:22" ht="23">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="23">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" ht="21">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" ht="21">
-      <c r="A4" s="10">
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="21">
+      <c r="A4" s="6">
         <v>43884</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>0.1</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" ht="21">
-      <c r="A5" s="10">
+      <c r="F4" s="18"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" ht="21">
+      <c r="A5" s="6">
         <v>43885</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="22">
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" ht="24">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="12"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" ht="24">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="16"/>
-    </row>
-    <row r="8" spans="1:21" ht="21">
-      <c r="K8" s="8"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="16"/>
-    </row>
-    <row r="9" spans="1:21" ht="21">
-      <c r="K9" s="8"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" ht="21">
-      <c r="K10" s="8"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="16"/>
-    </row>
-    <row r="11" spans="1:21" ht="21">
-      <c r="K11" s="8"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" ht="21">
-      <c r="K12" s="8"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" ht="21">
-      <c r="K13" s="8"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" ht="21">
-      <c r="K14" s="8"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="16"/>
-    </row>
-    <row r="15" spans="1:21" ht="21">
-      <c r="K15" s="8"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" ht="21">
-      <c r="K16" s="8"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="14"/>
+    </row>
+    <row r="6" spans="1:22" ht="21">
+      <c r="A6" s="6">
+        <v>43886</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" ht="21">
+      <c r="A7" s="6">
+        <v>43887</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" ht="21">
+      <c r="K8" s="4"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" ht="21">
+      <c r="K9" s="4"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" ht="21">
+      <c r="K10" s="4"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" ht="21">
+      <c r="K11" s="4"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:22" ht="21">
+      <c r="K12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" ht="21">
+      <c r="K13" s="4"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" ht="21">
+      <c r="K14" s="4"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" ht="21">
+      <c r="K15" s="4"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="12"/>
+    </row>
+    <row r="16" spans="1:22" ht="21">
+      <c r="K16" s="4"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="11:21" ht="21">
-      <c r="K17" s="8"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="16"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="11:21" ht="21">
-      <c r="K18" s="8"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="16"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="11:21" ht="21">
-      <c r="K19" s="8"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="16"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="11:21" ht="21">
-      <c r="K20" s="8"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="16"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="11:21" ht="21">
-      <c r="K21" s="8"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="16"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="11:21" ht="21">
-      <c r="K22" s="8"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="16"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="11:21" ht="21">
-      <c r="K23" s="8"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="16"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="11:21" ht="21">
-      <c r="K24" s="8"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="16"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="11:21" ht="21">
-      <c r="K25" s="8"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="16"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="11:21" ht="21">
-      <c r="K26" s="8"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="16"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" spans="11:21" ht="21">
-      <c r="K27" s="8"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="16"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" spans="11:21" ht="21">
-      <c r="K28" s="8"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="16"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="12"/>
     </row>
     <row r="29" spans="11:21" ht="21">
-      <c r="K29" s="8"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="16"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="11:21" ht="21">
-      <c r="K30" s="8"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="16"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="11:21" ht="21">
-      <c r="K31" s="8"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="16"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="11:21" ht="21">
-      <c r="K32" s="8"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="16"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="11:21" ht="21">
-      <c r="K33" s="8"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="17"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5169,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A54492-8537-E549-970D-B51F225FB432}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5183,93 +5381,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="19">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5294,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D7881-D034-8C4A-B420-4E009F97DDD0}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5308,735 +5588,735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>43884</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>0.1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>0.1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>43885</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>0.1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>0.1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>43886</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>0.2</v>
       </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="18">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>43887</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <v>0.2</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>43888</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <v>0.3</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>43889</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>0.3</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>43890</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <v>0.5</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>43891</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <v>0.5</v>
       </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>43892</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>0.6</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>43893</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>0.6</v>
       </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>43894</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>0.6</v>
       </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
         <v>11</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>43895</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>0.7</v>
       </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
         <v>12</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>43896</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>0.7</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>13</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="18">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>43897</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>0.9</v>
       </c>
-      <c r="C17" s="20">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="18">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>43898</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="18">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>43899</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
         <v>16</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="18">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>43900</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
         <v>17</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13"/>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="18">
-      <c r="A21" s="8">
+      <c r="A21" s="4">
         <v>43901</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
         <v>18</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="18">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>43902</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
         <v>19</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7"/>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="18">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>43903</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
         <v>20</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="18">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>43904</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <v>1.4</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
         <v>21</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="18">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
         <v>43905</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <v>1.4</v>
       </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>22</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7"/>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="18">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>43906</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <v>1.4</v>
       </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
         <v>23</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7"/>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="18">
-      <c r="A27" s="8">
+      <c r="A27" s="4">
         <v>43907</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <v>1.5</v>
       </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
         <v>24</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="18">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>43908</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <v>1.5</v>
       </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>25</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7"/>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="18">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>43909</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <v>1.5</v>
       </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
         <v>26</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="18">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>43910</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="16">
         <v>1.6</v>
       </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
         <v>27</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="18">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
         <v>43911</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="17">
         <v>1.8</v>
       </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
         <v>28</v>
       </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="18">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>43912</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="17">
         <v>1.8</v>
       </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
         <v>29</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="18">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>43913</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="17">
         <v>2.4</v>
       </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
         <v>30</v>
       </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13"/>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6069,789 +6349,789 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>43884</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>0.1</v>
       </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>43885</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>43886</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>0.2</v>
       </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <f>B5*2</f>
         <v>0.2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>43887</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>0.4</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" ref="F7:F34" si="0">B6*2</f>
         <v>0.4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>43888</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>0.8</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>43889</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>1.6</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>43890</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>3.2</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>43891</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>6.4</v>
       </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>43892</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>12.8</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
         <v>8</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>43893</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>25.6</v>
       </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>43894</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>51.2</v>
       </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>51.2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>43895</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>102.4</v>
       </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
         <v>11</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>102.4</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>43896</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>204.8</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>12</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>204.8</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>43897</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>409.6</v>
       </c>
-      <c r="C17" s="20">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>13</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>409.6</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="8">
+      <c r="A18" s="4">
         <v>43898</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>819.2</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>14</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>819.2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>43899</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <v>1638.4</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
         <v>15</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>1638.4</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>43900</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>3276.8</v>
       </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
         <v>16</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>3276.8</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
-      <c r="A21" s="8">
+      <c r="A21" s="4">
         <v>43901</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>6553.6</v>
       </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
         <v>17</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>6553.6</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>43902</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>13107.2</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
         <v>18</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>13107.2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>43903</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>26214.400000000001</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
         <v>19</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>26214.400000000001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>43904</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>52428.800000000003</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
         <v>20</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>52428.800000000003</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18">
-      <c r="A25" s="8">
+      <c r="A25" s="4">
         <v>43905</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <v>104857.60000000001</v>
       </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>21</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>104857.60000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>43906</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="3">
         <v>209715.20000000001</v>
       </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
         <v>22</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>209715.20000000001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="8">
+      <c r="A27" s="4">
         <v>43907</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="3">
         <v>419430.40000000002</v>
       </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
         <v>23</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>419430.40000000002</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>43908</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>838860.80000000005</v>
       </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>24</v>
       </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>838860.80000000005</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>43909</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>1677721.6000000001</v>
       </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
         <v>25</v>
       </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>1677721.6000000001</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>43910</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>3355443.2000000002</v>
       </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
         <v>26</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
         <f t="shared" si="0"/>
         <v>3355443.2000000002</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
         <v>43911</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <v>6710886.4000000004</v>
       </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
         <v>27</v>
       </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>6710886.4000000004</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>43912</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <v>13421772.800000001</v>
       </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
         <v>28</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
         <f t="shared" si="0"/>
         <v>13421772.800000001</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>43913</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="3">
         <v>26843545.600000001</v>
       </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
         <v>29</v>
       </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>26843545.600000001</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>43914</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="3">
         <v>53687091.200000003</v>
       </c>
-      <c r="C34" s="20">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
         <v>30</v>
       </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
         <f t="shared" si="0"/>
         <v>53687091.200000003</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>0</v>
       </c>
     </row>
